--- a/LichessStudyGames.xlsx
+++ b/LichessStudyGames.xlsx
@@ -1219,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1266,6 +1266,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1571,7 +1574,7 @@
   <dimension ref="A1:AJ97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,7 +1655,7 @@
       <c r="M5" s="2"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -1664,7 +1667,7 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="20">
         <f ca="1">COUNTIF((H11:INDIRECT("H"&amp;D6)),"=1-0")/COUNTA(H11:INDIRECT("H"&amp;D6))</f>
         <v>0.51724137931034486</v>
       </c>
@@ -1680,7 +1683,7 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="20">
         <f ca="1">COUNTIF((H11:INDIRECT("H"&amp;D6)),"=0-1")/COUNTA(H11:INDIRECT("H"&amp;D6))</f>
         <v>0.48275862068965519</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="20">
         <f ca="1">COUNTIF((H11:INDIRECT("H"&amp;D6)),"=1/2-1/2")/COUNTA(H11:INDIRECT("H"&amp;D6))</f>
         <v>0</v>
       </c>
